--- a/data/Bot Data Scraping Config.xlsx
+++ b/data/Bot Data Scraping Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\why_pay_more_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE62593A-C8C3-4F3F-A37E-8CB962D6FEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8808F07-C095-47FE-A170-B033D0280161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendors" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="108">
   <si>
     <t>Vendor Names</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Chennai</t>
   </si>
   <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
     <t>https://www.flipkart.com/grocery/staples/ghee-oils/pr?sid=73z,bpe,4wu&amp;marketplace=GROCERY</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
   </si>
   <si>
     <t>Bigbasket</t>
-  </si>
-  <si>
-    <t>Delhi</t>
   </si>
   <si>
     <t>Fresh Vegetables</t>
@@ -698,52 +692,52 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -755,14 +749,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30831818-409A-44D1-939C-7C8196CBDE6B}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J4" sqref="J4:J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="41.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -785,974 +779,974 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>63</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>64</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>67</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>70</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>71</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>72</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>73</v>
       </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>76</v>
       </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>77</v>
       </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>79</v>
       </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>80</v>
       </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>81</v>
       </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>82</v>
       </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>83</v>
       </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>84</v>
       </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>85</v>
       </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>86</v>
       </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>87</v>
       </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" t="s">
-        <v>36</v>
-      </c>
-      <c r="J39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>88</v>
       </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" t="s">
-        <v>36</v>
-      </c>
-      <c r="J40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>89</v>
       </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>90</v>
       </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>91</v>
       </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" t="s">
-        <v>36</v>
-      </c>
-      <c r="J43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>93</v>
       </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" t="s">
-        <v>36</v>
-      </c>
-      <c r="J45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>94</v>
       </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" t="s">
-        <v>36</v>
-      </c>
-      <c r="J46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" t="s">
-        <v>36</v>
-      </c>
-      <c r="J47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" t="s">
-        <v>36</v>
-      </c>
-      <c r="J48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>97</v>
       </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>99</v>
       </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>100</v>
       </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>101</v>
       </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>102</v>
       </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>103</v>
       </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>105</v>
-      </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1778,15 +1772,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J9" sqref="J9"/>
+      <selection pane="topRight" activeCell="J6" sqref="J6:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="44.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.88671875" customWidth="1"/>
+    <col min="1" max="1" width="84.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1809,149 +1803,149 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1979,12 +1973,12 @@
       <selection pane="topRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.44140625" customWidth="1"/>
+    <col min="1" max="1" width="85.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2007,16 +2001,16 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2024,47 +2018,47 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="J3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2077,17 +2071,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58025A8F-9953-4A9D-80A6-80E80C453A70}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J2" sqref="J2:J7"/>
+      <selection pane="topRight" activeCell="J8" sqref="J8:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="44.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.88671875" customWidth="1"/>
+    <col min="1" max="1" width="84.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2110,183 +2104,183 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2309,18 +2303,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812A07CF-DF50-45AE-9ED8-AA6393DD4D31}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2328,40 +2322,18 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>560036</v>
+        <v>600127</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>110001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>600127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
